--- a/abe/import/worksheet.xlsx
+++ b/abe/import/worksheet.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="320" windowWidth="13440" windowHeight="14140" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11640" yWindow="320" windowWidth="13440" windowHeight="14140" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="89">
   <si>
     <t>Urban</t>
   </si>
@@ -249,6 +250,50 @@
   </si>
   <si>
     <t>Chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SoilTexture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  BMP_Efficiency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Lateral_Recession </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Height </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Length </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Streambank_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  watershd_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Years_to_Form </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Depth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Bottom_Width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Top_Width </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gully_id </t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -327,8 +372,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -367,7 +420,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="39">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
@@ -384,6 +437,10 @@
     <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -399,6 +456,10 @@
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1111,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1291,4 +1352,175 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="3:4">
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="3:4">
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="3:4">
+      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4">
+      <c r="C7">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4">
+      <c r="C8">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4">
+      <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C2:D19">
+    <sortCondition descending="1" ref="C2"/>
+  </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>